--- a/data/scenarios/base_parent/output/departures.xlsx
+++ b/data/scenarios/base_parent/output/departures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="46">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -70,6 +70,9 @@
     <t>ДЮК II</t>
   </si>
   <si>
+    <t>Вайгач</t>
+  </si>
+  <si>
     <t>ШТУРМАН КОШЕЛЕВ</t>
   </si>
   <si>
@@ -85,22 +88,19 @@
     <t>Ямал</t>
   </si>
   <si>
-    <t>Вайгач</t>
-  </si>
-  <si>
     <t>Вход в Обскую губу</t>
   </si>
   <si>
     <t>Новый порт</t>
   </si>
   <si>
+    <t>Мыс Желания</t>
+  </si>
+  <si>
     <t>Карское - 1 (сбор каравана)</t>
   </si>
   <si>
     <t>Карское - 3 (центр)</t>
-  </si>
-  <si>
-    <t>пролив Лонга</t>
   </si>
   <si>
     <t>Восточно-Сибирское - 1 (восток)</t>
@@ -118,6 +118,9 @@
     <t>кромка льда на Западе</t>
   </si>
   <si>
+    <t>терминал Утренний</t>
+  </si>
+  <si>
     <t>Лаптевых - 1 (центр)</t>
   </si>
   <si>
@@ -125,12 +128,6 @@
   </si>
   <si>
     <t>Восточно-Сибирское - 3 (север)</t>
-  </si>
-  <si>
-    <t>Восточно-Сибирское - 2 (запад)</t>
-  </si>
-  <si>
-    <t>Мыс Желания</t>
   </si>
   <si>
     <t>Таймырский залив</t>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>пролив Вилькицкого - восток</t>
+  </si>
+  <si>
+    <t>пролив Лонга</t>
   </si>
   <si>
     <t>Рейд Мурманска</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +601,7 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -739,46 +739,46 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
       <c r="I5">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>44629.83333333334</v>
+        <v>44619.66666666666</v>
       </c>
       <c r="Q5" s="2">
-        <v>44630.04166666666</v>
+        <v>44620.33333333334</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -789,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>13</v>
@@ -807,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>44629.83333333334</v>
+        <v>44620.375</v>
       </c>
       <c r="Q6" s="2">
-        <v>44630.04166666666</v>
+        <v>44620.58333333334</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -851,28 +851,28 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L7">
         <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>44629.375</v>
+        <v>44629.83333333334</v>
       </c>
       <c r="Q7" s="2">
-        <v>44629.83333333334</v>
+        <v>44630.04166666666</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -904,22 +904,22 @@
         <v>27</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>44629.375</v>
+        <v>44629.83333333334</v>
       </c>
       <c r="Q8" s="2">
-        <v>44629.83333333334</v>
+        <v>44630.04166666666</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -951,46 +951,46 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
       <c r="H9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>44619</v>
+        <v>44629.375</v>
       </c>
       <c r="Q9" s="2">
-        <v>44619.54166666666</v>
+        <v>44629.83333333334</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1001,31 +1001,31 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>44623.45833333334</v>
+        <v>44629.375</v>
       </c>
       <c r="Q10" s="2">
-        <v>44624</v>
+        <v>44629.83333333334</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1054,31 +1054,31 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="2">
-        <v>44621.54166666666</v>
+        <v>44623.45833333334</v>
       </c>
       <c r="Q11" s="2">
-        <v>44621.95833333334</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1107,31 +1107,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>43</v>
       </c>
       <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>42</v>
-      </c>
       <c r="I12">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1146,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>44621.125</v>
+        <v>44621.54166666666</v>
       </c>
       <c r="Q12" s="2">
-        <v>44621.54166666666</v>
+        <v>44621.95833333334</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1160,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -1178,31 +1178,31 @@
         <v>42</v>
       </c>
       <c r="I13">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>44626.375</v>
+        <v>44621.125</v>
       </c>
       <c r="Q13" s="2">
-        <v>44626.79166666666</v>
+        <v>44621.54166666666</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1216,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -1237,19 +1237,19 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>44626.375</v>
@@ -1266,49 +1266,49 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="F15">
-        <v>42</v>
-      </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J15">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
+        <v>44626.375</v>
+      </c>
+      <c r="Q15" s="2">
         <v>44626.79166666666</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>44628.25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1322,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -1340,28 +1340,28 @@
         <v>187</v>
       </c>
       <c r="J16">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
         <v>44626.79166666666</v>
       </c>
       <c r="Q16" s="2">
-        <v>44627.95833333334</v>
+        <v>44628.25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1372,49 +1372,49 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>44623.20833333334</v>
+        <v>44626.79166666666</v>
       </c>
       <c r="Q17" s="2">
-        <v>44623.95833333334</v>
+        <v>44627.95833333334</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1425,10 +1425,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1443,19 +1443,19 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J18">
         <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L18">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>44623.54166666666</v>
+        <v>44623.20833333334</v>
       </c>
       <c r="Q18" s="2">
-        <v>44624.29166666666</v>
+        <v>44623.95833333334</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1481,7 +1481,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -1496,19 +1496,19 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>44625.91666666666</v>
+        <v>44623.54166666666</v>
       </c>
       <c r="Q19" s="2">
-        <v>44626.66666666666</v>
+        <v>44624.29166666666</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1534,46 +1534,46 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20">
-        <v>15</v>
-      </c>
       <c r="I20">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>44619.45833333334</v>
+        <v>44625.91666666666</v>
       </c>
       <c r="Q20" s="2">
-        <v>44620</v>
+        <v>44626.66666666666</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1584,31 +1584,31 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
         <v>13</v>
       </c>
-      <c r="J21">
-        <v>17</v>
-      </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>44619.54166666666</v>
+        <v>44619.625</v>
       </c>
       <c r="Q21" s="2">
-        <v>44620.25</v>
+        <v>44620.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1640,46 +1640,46 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="F22">
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>38</v>
+      </c>
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>222</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L22">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>44628.25</v>
+        <v>44620.58333333334</v>
       </c>
       <c r="Q22" s="2">
-        <v>44628.54166666666</v>
+        <v>44621.08333333334</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1690,31 +1690,31 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="I23">
-        <v>222</v>
-      </c>
-      <c r="J23">
-        <v>7</v>
-      </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>44628.25</v>
+        <v>44621.08333333334</v>
       </c>
       <c r="Q23" s="2">
-        <v>44628.54166666666</v>
+        <v>44621.58333333334</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1743,49 +1743,49 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L24">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>44624.29166666666</v>
+        <v>44628.25</v>
       </c>
       <c r="Q24" s="2">
-        <v>44625.16666666666</v>
+        <v>44628.54166666666</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1796,49 +1796,49 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25">
-        <v>19</v>
-      </c>
       <c r="I25">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L25">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
+        <v>44628.25</v>
+      </c>
+      <c r="Q25" s="2">
         <v>44628.54166666666</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>44628.66666666666</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1849,49 +1849,49 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I26">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>44628.58333333334</v>
+        <v>44624.29166666666</v>
       </c>
       <c r="Q26" s="2">
-        <v>44628.66666666666</v>
+        <v>44625.16666666666</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1902,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>17</v>
@@ -1911,40 +1911,40 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I27">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="J27">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L27">
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>44625.04166666666</v>
+        <v>44628.54166666666</v>
       </c>
       <c r="Q27" s="2">
-        <v>44626.375</v>
+        <v>44628.66666666666</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1955,7 +1955,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>43</v>
@@ -1964,22 +1964,22 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I28">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="P28" s="2">
-        <v>44625.04166666666</v>
+        <v>44628.54166666666</v>
       </c>
       <c r="Q28" s="2">
-        <v>44626.125</v>
+        <v>44628.625</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2008,31 +2008,31 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>30</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29">
-        <v>18</v>
-      </c>
       <c r="I29">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="J29">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="P29" s="2">
-        <v>44621.95833333334</v>
+        <v>44620.04166666666</v>
       </c>
       <c r="Q29" s="2">
-        <v>44623.45833333334</v>
+        <v>44621.125</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2064,13 +2064,13 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
       </c>
       <c r="F30">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -2079,31 +2079,31 @@
         <v>30</v>
       </c>
       <c r="I30">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="J30">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>44620.29166666666</v>
+        <v>44625.04166666666</v>
       </c>
       <c r="Q30" s="2">
-        <v>44621.125</v>
+        <v>44626.375</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2114,31 +2114,31 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="J31">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>44620.75</v>
+        <v>44625.04166666666</v>
       </c>
       <c r="Q31" s="2">
-        <v>44621.41666666666</v>
+        <v>44626.125</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2167,31 +2167,31 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="J32">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="P32" s="2">
-        <v>44619.125</v>
+        <v>44621.95833333334</v>
       </c>
       <c r="Q32" s="2">
-        <v>44619.83333333334</v>
+        <v>44623.45833333334</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2220,13 +2220,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -2238,13 +2238,13 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="P33" s="2">
-        <v>44621.41666666666</v>
+        <v>44619.08333333334</v>
       </c>
       <c r="Q33" s="2">
-        <v>44622.08333333334</v>
+        <v>44619.79166666666</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2273,19 +2273,19 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34">
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>7</v>
@@ -2297,13 +2297,13 @@
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L34">
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2326,19 +2326,19 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -2350,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>46</v>
@@ -2391,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>25</v>
@@ -2403,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>44</v>
@@ -2444,13 +2444,13 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>25</v>
       </c>
       <c r="I37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J37">
         <v>8</v>
@@ -2471,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="2">
-        <v>44623.54166666666</v>
+        <v>44623.625</v>
       </c>
       <c r="Q37" s="2">
-        <v>44623.875</v>
+        <v>44623.95833333334</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2485,7 +2485,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>17</v>
@@ -2497,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>25</v>
@@ -2509,13 +2509,13 @@
         <v>10</v>
       </c>
       <c r="K38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L38">
         <v>120</v>
       </c>
       <c r="M38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>43</v>
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>25</v>
@@ -2562,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>25</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40">
         <v>72</v>
@@ -2644,13 +2644,13 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>25</v>
@@ -2668,7 +2668,7 @@
         <v>10</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2697,13 +2697,13 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <v>25</v>
@@ -2721,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>120</v>
@@ -2750,13 +2750,13 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>25</v>
@@ -2803,31 +2803,31 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H44">
         <v>16</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="P44" s="2">
-        <v>44619.25</v>
+        <v>44619</v>
       </c>
       <c r="Q44" s="2">
-        <v>44619.70833333334</v>
+        <v>44619.45833333334</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2856,49 +2856,49 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
         <v>38</v>
       </c>
-      <c r="F45">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
       <c r="H45">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I45">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="J45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M45" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>44619.70833333334</v>
+        <v>44628.66666666666</v>
       </c>
       <c r="Q45" s="2">
-        <v>44620.16666666666</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2909,19 +2909,19 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>36</v>
@@ -2933,19 +2933,19 @@
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L46">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2">
         <v>44628.66666666666</v>
@@ -2962,49 +2962,49 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I47">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>44628.66666666666</v>
+        <v>44622.08333333334</v>
       </c>
       <c r="Q47" s="2">
-        <v>44629</v>
+        <v>44623.20833333334</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3015,10 +3015,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
         <v>24</v>
@@ -3036,28 +3036,28 @@
         <v>74</v>
       </c>
       <c r="J48">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L48">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2">
         <v>44622.08333333334</v>
       </c>
       <c r="Q48" s="2">
-        <v>44623.20833333334</v>
+        <v>44622.79166666666</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3068,10 +3068,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
@@ -3086,31 +3086,31 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J49">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>44622.08333333334</v>
+        <v>44622.41666666666</v>
       </c>
       <c r="Q49" s="2">
-        <v>44622.79166666666</v>
+        <v>44623.54166666666</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3121,10 +3121,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
         <v>24</v>
@@ -3142,28 +3142,28 @@
         <v>82</v>
       </c>
       <c r="J50">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
         <v>40</v>
       </c>
       <c r="L50">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2">
         <v>44622.41666666666</v>
       </c>
       <c r="Q50" s="2">
-        <v>44623.54166666666</v>
+        <v>44623.20833333334</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3174,10 +3174,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
         <v>24</v>
@@ -3192,31 +3192,31 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="J51">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>44622.41666666666</v>
+        <v>44624.41666666666</v>
       </c>
       <c r="Q51" s="2">
-        <v>44623.20833333334</v>
+        <v>44625.91666666666</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3227,49 +3227,49 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
         <v>24</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>10</v>
       </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52">
-        <v>15</v>
-      </c>
       <c r="I52">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="J52">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L52">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2">
-        <v>44624.41666666666</v>
+        <v>44621.375</v>
       </c>
       <c r="Q52" s="2">
-        <v>44625.91666666666</v>
+        <v>44622.08333333334</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3280,7 +3280,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>44</v>
@@ -3298,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="I53">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J53">
         <v>17</v>
@@ -3319,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="P53" s="2">
-        <v>44620.04166666666</v>
+        <v>44622.79166666666</v>
       </c>
       <c r="Q53" s="2">
-        <v>44620.75</v>
+        <v>44623.5</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3333,31 +3333,31 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I54">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3372,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="P54" s="2">
-        <v>44620.79166666666</v>
+        <v>44619.20833333334</v>
       </c>
       <c r="Q54" s="2">
-        <v>44621.58333333334</v>
+        <v>44620.04166666666</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3386,49 +3386,49 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F55">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I55">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>44622.83333333334</v>
+        <v>44624</v>
       </c>
       <c r="Q55" s="2">
-        <v>44623.54166666666</v>
+        <v>44625.04166666666</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3439,19 +3439,19 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F56">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>28</v>
@@ -3460,28 +3460,28 @@
         <v>120</v>
       </c>
       <c r="J56">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L56">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2">
         <v>44624</v>
       </c>
       <c r="Q56" s="2">
-        <v>44625.04166666666</v>
+        <v>44624.83333333334</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3492,31 +3492,31 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="J57">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="2">
-        <v>44624</v>
+        <v>44620.83333333334</v>
       </c>
       <c r="Q57" s="2">
-        <v>44624.83333333334</v>
+        <v>44621.375</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3548,28 +3548,28 @@
         <v>23</v>
       </c>
       <c r="D58">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58">
         <v>6</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58">
-        <v>15</v>
       </c>
       <c r="I58">
         <v>28</v>
       </c>
       <c r="J58">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>44620.16666666666</v>
       </c>
       <c r="Q58" s="2">
-        <v>44620.79166666666</v>
+        <v>44620.70833333334</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3651,7 +3651,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3675,7 +3675,7 @@
         <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L60">
         <v>120</v>
@@ -3704,7 +3704,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>44</v>
@@ -3722,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>11</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="2">
-        <v>44619</v>
+        <v>44619.08333333334</v>
       </c>
       <c r="Q61" s="2">
-        <v>44619.45833333334</v>
+        <v>44619.54166666666</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3760,28 +3760,28 @@
         <v>23</v>
       </c>
       <c r="D62">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="2">
-        <v>44619</v>
+        <v>44619.54166666666</v>
       </c>
       <c r="Q62" s="2">
-        <v>44619.04166666666</v>
+        <v>44619.58333333334</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3813,28 +3813,28 @@
         <v>23</v>
       </c>
       <c r="D63">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3849,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="P63" s="2">
-        <v>44619.04166666666</v>
+        <v>44619.58333333334</v>
       </c>
       <c r="Q63" s="2">
-        <v>44619.08333333334</v>
+        <v>44619.625</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3866,28 +3866,28 @@
         <v>23</v>
       </c>
       <c r="D64">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>6</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="P64" s="2">
-        <v>44619.08333333334</v>
+        <v>44620.70833333334</v>
       </c>
       <c r="Q64" s="2">
-        <v>44619.125</v>
+        <v>44620.75</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -3919,28 +3919,28 @@
         <v>23</v>
       </c>
       <c r="D65">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65">
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>6</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="P65" s="2">
-        <v>44619.125</v>
+        <v>44620.75</v>
       </c>
       <c r="Q65" s="2">
-        <v>44619.16666666666</v>
+        <v>44620.79166666666</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -3972,28 +3972,28 @@
         <v>23</v>
       </c>
       <c r="D66">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>6</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="P66" s="2">
-        <v>44619.16666666666</v>
+        <v>44620.79166666666</v>
       </c>
       <c r="Q66" s="2">
-        <v>44619.20833333334</v>
+        <v>44620.83333333334</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4022,31 +4022,31 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>1</v>
       </c>
       <c r="P67" s="2">
-        <v>44619.20833333334</v>
+        <v>44619.79166666666</v>
       </c>
       <c r="Q67" s="2">
-        <v>44619.25</v>
+        <v>44619.83333333334</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4075,31 +4075,31 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I68">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="2">
-        <v>44628.54166666666</v>
+        <v>44623.5</v>
       </c>
       <c r="Q68" s="2">
-        <v>44628.58333333334</v>
+        <v>44623.54166666666</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4128,31 +4128,31 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I69">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4167,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="P69" s="2">
-        <v>44627.95833333334</v>
+        <v>44623.54166666666</v>
       </c>
       <c r="Q69" s="2">
-        <v>44628</v>
+        <v>44623.58333333334</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4181,31 +4181,31 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I70">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -4220,10 +4220,10 @@
         <v>1</v>
       </c>
       <c r="P70" s="2">
-        <v>44628</v>
+        <v>44623.58333333334</v>
       </c>
       <c r="Q70" s="2">
-        <v>44628.04166666666</v>
+        <v>44623.625</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4234,31 +4234,31 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>12</v>
       </c>
       <c r="I71">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -4273,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="P71" s="2">
-        <v>44628.04166666666</v>
+        <v>44627.95833333334</v>
       </c>
       <c r="Q71" s="2">
-        <v>44628.08333333334</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4287,31 +4287,31 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F72">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>12</v>
       </c>
       <c r="I72">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="P72" s="2">
-        <v>44628.08333333334</v>
+        <v>44628</v>
       </c>
       <c r="Q72" s="2">
-        <v>44628.125</v>
+        <v>44628.04166666666</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4340,31 +4340,31 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>12</v>
       </c>
       <c r="I73">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="P73" s="2">
-        <v>44628.125</v>
+        <v>44628.04166666666</v>
       </c>
       <c r="Q73" s="2">
-        <v>44628.16666666666</v>
+        <v>44628.08333333334</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4393,31 +4393,31 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F74">
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>12</v>
       </c>
       <c r="I74">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -4432,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="2">
-        <v>44628.16666666666</v>
+        <v>44628.08333333334</v>
       </c>
       <c r="Q74" s="2">
-        <v>44628.20833333334</v>
+        <v>44628.125</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4446,31 +4446,31 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>12</v>
       </c>
       <c r="I75">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="2">
-        <v>44628.20833333334</v>
+        <v>44628.125</v>
       </c>
       <c r="Q75" s="2">
-        <v>44628.25</v>
+        <v>44628.16666666666</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4499,31 +4499,31 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I76">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="2">
-        <v>44620</v>
+        <v>44628.16666666666</v>
       </c>
       <c r="Q76" s="2">
-        <v>44620.04166666666</v>
+        <v>44628.20833333334</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4552,31 +4552,31 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D77">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I77">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4591,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="2">
-        <v>44622.79166666666</v>
+        <v>44628.20833333334</v>
       </c>
       <c r="Q77" s="2">
-        <v>44622.83333333334</v>
+        <v>44628.25</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4605,31 +4605,31 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         <v>1</v>
       </c>
       <c r="P78" s="2">
-        <v>44619</v>
+        <v>44620.33333333334</v>
       </c>
       <c r="Q78" s="2">
-        <v>44619.04166666666</v>
+        <v>44620.375</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4664,25 +4664,25 @@
         <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F79">
         <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H79">
         <v>16</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -4697,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="P79" s="2">
+        <v>44619</v>
+      </c>
+      <c r="Q79" s="2">
         <v>44619.04166666666</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>44619.08333333334</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4717,25 +4717,25 @@
         <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F80">
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H80">
         <v>16</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>1</v>
       </c>
       <c r="P80" s="2">
+        <v>44619.04166666666</v>
+      </c>
+      <c r="Q80" s="2">
         <v>44619.08333333334</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>44619.125</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4764,32 +4764,32 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81">
+        <v>16</v>
+      </c>
+      <c r="I81">
+        <v>11</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
         <v>40</v>
       </c>
-      <c r="F81">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81">
-        <v>25</v>
-      </c>
-      <c r="I81">
-        <v>117</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>43</v>
-      </c>
       <c r="L81">
         <v>0</v>
       </c>
@@ -4803,10 +4803,10 @@
         <v>1</v>
       </c>
       <c r="P81" s="2">
-        <v>44623.875</v>
+        <v>44619.45833333334</v>
       </c>
       <c r="Q81" s="2">
-        <v>44623.91666666666</v>
+        <v>44619.5</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4817,32 +4817,32 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82">
+        <v>16</v>
+      </c>
+      <c r="I82">
+        <v>12</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
         <v>40</v>
       </c>
-      <c r="F82">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82">
-        <v>25</v>
-      </c>
-      <c r="I82">
-        <v>118</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>43</v>
-      </c>
       <c r="L82">
         <v>0</v>
       </c>
@@ -4856,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="P82" s="2">
-        <v>44623.91666666666</v>
+        <v>44619.5</v>
       </c>
       <c r="Q82" s="2">
-        <v>44623.95833333334</v>
+        <v>44619.54166666666</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4870,32 +4870,32 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+      <c r="I83">
+        <v>13</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
         <v>40</v>
       </c>
-      <c r="F83">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83">
-        <v>25</v>
-      </c>
-      <c r="I83">
-        <v>119</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" t="s">
-        <v>43</v>
-      </c>
       <c r="L83">
         <v>0</v>
       </c>
@@ -4909,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="P83" s="2">
-        <v>44623.95833333334</v>
+        <v>44619.54166666666</v>
       </c>
       <c r="Q83" s="2">
-        <v>44624</v>
+        <v>44619.58333333334</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4923,31 +4923,31 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F84">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H84">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I84">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -4962,10 +4962,10 @@
         <v>1</v>
       </c>
       <c r="P84" s="2">
-        <v>44624.83333333334</v>
+        <v>44619.58333333334</v>
       </c>
       <c r="Q84" s="2">
-        <v>44624.875</v>
+        <v>44619.625</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -4976,31 +4976,31 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F85">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H85">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I85">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -5015,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="P85" s="2">
-        <v>44624.875</v>
+        <v>44619.625</v>
       </c>
       <c r="Q85" s="2">
-        <v>44624.91666666666</v>
+        <v>44619.66666666666</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5029,31 +5029,31 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>43</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86">
         <v>19</v>
       </c>
-      <c r="D86">
-        <v>43</v>
-      </c>
-      <c r="E86" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86">
-        <v>28</v>
-      </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I86">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>1</v>
       </c>
       <c r="P86" s="2">
-        <v>44624.91666666666</v>
+        <v>44628.625</v>
       </c>
       <c r="Q86" s="2">
-        <v>44624.95833333334</v>
+        <v>44628.66666666666</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5082,31 +5082,31 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F87">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I87">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>1</v>
       </c>
       <c r="P87" s="2">
-        <v>44624.95833333334</v>
+        <v>44623.95833333334</v>
       </c>
       <c r="Q87" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5135,31 +5135,31 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F88">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I88">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -5174,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="P88" s="2">
-        <v>44625</v>
+        <v>44619</v>
       </c>
       <c r="Q88" s="2">
-        <v>44625.04166666666</v>
+        <v>44619.04166666666</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5188,31 +5188,31 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89">
         <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F89">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I89">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="P89" s="2">
-        <v>44626.125</v>
+        <v>44619.04166666666</v>
       </c>
       <c r="Q89" s="2">
-        <v>44626.16666666666</v>
+        <v>44619.08333333334</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5241,31 +5241,31 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I90">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -5280,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="P90" s="2">
-        <v>44626.16666666666</v>
+        <v>44619.08333333334</v>
       </c>
       <c r="Q90" s="2">
-        <v>44626.20833333334</v>
+        <v>44619.125</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5294,31 +5294,31 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>43</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F91">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I91">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="P91" s="2">
-        <v>44626.20833333334</v>
+        <v>44619.125</v>
       </c>
       <c r="Q91" s="2">
-        <v>44626.25</v>
+        <v>44619.16666666666</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5347,31 +5347,31 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92">
         <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F92">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I92">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -5386,10 +5386,10 @@
         <v>1</v>
       </c>
       <c r="P92" s="2">
-        <v>44626.25</v>
+        <v>44619.16666666666</v>
       </c>
       <c r="Q92" s="2">
-        <v>44626.29166666666</v>
+        <v>44619.20833333334</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5400,31 +5400,31 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93">
         <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I93">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -5439,10 +5439,10 @@
         <v>1</v>
       </c>
       <c r="P93" s="2">
-        <v>44626.29166666666</v>
+        <v>44624.83333333334</v>
       </c>
       <c r="Q93" s="2">
-        <v>44626.33333333334</v>
+        <v>44624.875</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5453,31 +5453,31 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D94">
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F94">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I94">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -5492,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="P94" s="2">
-        <v>44626.33333333334</v>
+        <v>44624.875</v>
       </c>
       <c r="Q94" s="2">
-        <v>44626.375</v>
+        <v>44624.91666666666</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5506,7 +5506,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95">
         <v>43</v>
@@ -5515,40 +5515,570 @@
         <v>37</v>
       </c>
       <c r="F95">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
       </c>
       <c r="H95">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I95">
+        <v>142</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>42</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>45</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="b">
+        <v>1</v>
+      </c>
+      <c r="P95" s="2">
+        <v>44624.91666666666</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>44624.95833333334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>43</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96">
+        <v>28</v>
+      </c>
+      <c r="I96">
+        <v>143</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>42</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="b">
+        <v>1</v>
+      </c>
+      <c r="P96" s="2">
+        <v>44624.95833333334</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>43</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97">
+        <v>28</v>
+      </c>
+      <c r="I97">
+        <v>144</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>42</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>45</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97" s="2">
+        <v>44625</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>44625.04166666666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>43</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98">
         <v>30</v>
       </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95" t="s">
-        <v>28</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" t="s">
-        <v>45</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95" t="b">
-        <v>1</v>
-      </c>
-      <c r="P95" s="2">
-        <v>44620.25</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>44620.29166666666</v>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98">
+        <v>30</v>
+      </c>
+      <c r="I98">
+        <v>171</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>42</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>45</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98" s="2">
+        <v>44626.125</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>44626.16666666666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>43</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99">
+        <v>30</v>
+      </c>
+      <c r="I99">
+        <v>172</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>42</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>45</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
+      <c r="P99" s="2">
+        <v>44626.16666666666</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>44626.20833333334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>43</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100">
+        <v>30</v>
+      </c>
+      <c r="I100">
+        <v>173</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>42</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>45</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="b">
+        <v>1</v>
+      </c>
+      <c r="P100" s="2">
+        <v>44626.20833333334</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>44626.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>43</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101">
+        <v>30</v>
+      </c>
+      <c r="I101">
+        <v>174</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>45</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="b">
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <v>44626.25</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>44626.29166666666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>43</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102">
+        <v>30</v>
+      </c>
+      <c r="I102">
+        <v>175</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>42</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="b">
+        <v>1</v>
+      </c>
+      <c r="P102" s="2">
+        <v>44626.29166666666</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>44626.33333333334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>43</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103">
+        <v>30</v>
+      </c>
+      <c r="I103">
+        <v>176</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>42</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>45</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="b">
+        <v>1</v>
+      </c>
+      <c r="P103" s="2">
+        <v>44626.33333333334</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>44626.375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104">
+        <v>41</v>
+      </c>
+      <c r="G104" t="s">
+        <v>43</v>
+      </c>
+      <c r="H104">
+        <v>41</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>43</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>45</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="b">
+        <v>1</v>
+      </c>
+      <c r="P104" s="2">
+        <v>44619</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>44619.04166666666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105">
+        <v>41</v>
+      </c>
+      <c r="G105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105">
+        <v>41</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>43</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>45</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="b">
+        <v>1</v>
+      </c>
+      <c r="P105" s="2">
+        <v>44619.04166666666</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>44619.08333333334</v>
       </c>
     </row>
   </sheetData>
